--- a/TDD_examples/CASE_2_ENEA_HTS_CICC/conductor_1_input.xlsx
+++ b/TDD_examples/CASE_2_ENEA_HTS_CICC/conductor_1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_2_ENEA_HTS_CICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12CA972-1BD8-4C34-A2DF-B603D7471FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE2C1B0-06C1-473C-80EA-4756DAF0151D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="1110" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHAN" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="119">
   <si>
     <t>COSTETA</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>SIDE2</t>
-  </si>
-  <si>
-    <t>ISTABILIZER</t>
   </si>
   <si>
     <t>Z_JACKET</t>
@@ -921,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2">
         <v>1</v>
@@ -967,7 +964,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="12">
         <f>IF(E$1 &gt; 0,1,0)</f>
@@ -1100,10 +1097,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="18">
         <v>6.5000000000000002E-7</v>
@@ -1148,16 +1145,16 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -1201,16 +1198,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1254,55 +1251,55 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1313,10 +1310,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="18">
         <f>4*E4/0.00893</f>
@@ -1373,16 +1370,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="18">
         <v>0</v>
@@ -1429,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1479,16 +1476,16 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1535,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="11">
         <v>124</v>
@@ -1588,13 +1585,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5">
         <v>0.02</v>
@@ -1641,10 +1638,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5" t="b">
         <f>FALSE</f>
@@ -1707,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -1757,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1801,69 +1798,69 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E18" s="5">
         <v>212</v>
@@ -1907,16 +1904,16 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E19" s="5" t="b">
         <v>0</v>
@@ -1988,7 +1985,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="12">
         <f>SUM(E$2:U2)</f>
@@ -1996,7 +1993,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="9">
         <v>0</v>
@@ -2007,7 +2004,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="13">
         <f>IF(E$1 &gt; 0,1,0)</f>
@@ -2044,10 +2041,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="18">
         <f>0.0000128</f>
@@ -2059,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="7">
         <v>0.96989999999999998</v>
@@ -2073,33 +2070,33 @@
     </row>
     <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="6">
         <v>182962000</v>
@@ -2107,16 +2104,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5">
         <v>132.5</v>
@@ -2124,16 +2121,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E9" s="5">
         <v>90</v>
@@ -2141,16 +2138,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5" t="b">
         <v>0</v>
@@ -2167,7 +2164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2195,7 +2192,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="9">
         <v>1</v>
@@ -2221,7 +2218,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="13">
         <f>IF(E$1 &gt; 0,1,0)</f>
@@ -2298,10 +2295,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="18">
         <f>0.0000128</f>
@@ -2330,16 +2327,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -2362,16 +2359,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -2397,13 +2394,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7">
         <v>0.96989999999999998</v>
@@ -2426,16 +2423,16 @@
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -2458,16 +2455,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="10">
         <v>0</v>
@@ -2490,16 +2487,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="16">
         <v>2</v>
@@ -2522,16 +2519,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -2554,16 +2551,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="6">
         <f>2*SQRT(E4/PI())</f>
@@ -2592,16 +2589,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -2624,16 +2621,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -2656,34 +2653,34 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2691,13 +2688,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="5">
         <v>100</v>
@@ -2720,48 +2717,48 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -2784,16 +2781,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="6">
         <v>182962000</v>
@@ -2816,16 +2813,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="5">
         <v>132.5</v>
@@ -2848,16 +2845,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E21" s="5">
         <v>90</v>
@@ -2880,16 +2877,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="E22" s="5">
         <v>5</v>
@@ -2912,16 +2909,16 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="E23" s="5">
         <f>10^-4</f>
@@ -2950,16 +2947,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="5" t="b">
         <v>0</v>
@@ -2991,11 +2988,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD13407-BFB1-4787-A354-6C7A2E5E5AE6}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD6"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,7 +3009,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="12">
         <f>SUM(E$2:Z2)</f>
@@ -3020,7 +3017,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2">
         <v>1</v>
@@ -3082,7 +3079,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="12">
         <f>IF(E$1 &gt; 0,1,0)</f>
@@ -3255,10 +3252,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="21">
         <f>0.000008608</f>
@@ -3335,16 +3332,16 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -3403,16 +3400,16 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -3474,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7">
         <v>0.96989999999999998</v>
@@ -3539,70 +3536,70 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -3610,13 +3607,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="10">
         <v>100</v>
@@ -3675,16 +3672,16 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5" t="b">
         <v>0</v>
@@ -3771,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="12">
         <f>SUM(E$2:Z2)</f>
@@ -3779,7 +3776,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="9">
         <v>1</v>
@@ -3790,7 +3787,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="13">
         <f>IF(E$1 &gt; 0,1,0)</f>
@@ -3821,16 +3818,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7">
         <f>0.00011074+0.00000483*6</f>
@@ -3839,16 +3836,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -3856,16 +3853,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -3873,16 +3870,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -3890,16 +3887,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="6">
         <f>0.06912 - 0.00402*6+(0.01022-0.00402)*6</f>
@@ -3908,16 +3905,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="6">
         <f>0.07854</f>
@@ -3926,16 +3923,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -3943,36 +3940,36 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -3991,33 +3988,33 @@
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="E14" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -4025,16 +4022,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="5" t="b">
         <v>0</v>
